--- a/User/chanhee/Accuracy/result/final_train_accuracy.xlsx
+++ b/User/chanhee/Accuracy/result/final_train_accuracy.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chanhee/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chanhee/Desktop/BioDataLab/User/chanhee/Accuracy/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="6900" windowWidth="27760" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="5840" yWindow="3180" windowWidth="27760" windowHeight="16380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -584,11 +584,12 @@
   <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F9"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="7" width="13" customWidth="1"/>
@@ -2533,6 +2534,30 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B3:G33">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:G75">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/User/chanhee/Accuracy/result/final_train_accuracy.xlsx
+++ b/User/chanhee/Accuracy/result/final_train_accuracy.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="3180" windowWidth="27760" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="19460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="81">
   <si>
     <t>min_accuracy</t>
   </si>
@@ -264,6 +265,12 @@
   </si>
   <si>
     <t>LOGISTIC_MODEL_PREDICTION</t>
+  </si>
+  <si>
+    <t>Wrong</t>
+  </si>
+  <si>
+    <t>log2</t>
   </si>
 </sst>
 </file>
@@ -299,11 +306,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -316,6 +324,1284 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>DNN_MODEL_PREDICTION</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mean_accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$3:$A$75</c:f>
+              <c:strCache>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>MEDULLOBLASTOMA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HISTOCYTIC.LYMPHOMA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CUTANEOUS.T.CELL.LYMPHOMA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CHRONIC.LYMPHOCYTIC.LEUKEMIA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ADENOID.CYSTIC.CARCINOMA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BURKITT.LYMPHOMA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>LUSC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>B.CELL.LYMPHOMA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>NUT.MIDLINE.CARCINOMA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>TESTICULAR.GERM.CELL.TUMOR</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CHOLANGIOCARCINOMA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SMALL.CELL.LUNG.CARCINOMA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>NORMAL.KIDNEY</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>MEGAKARYOBLASTIC.LEUKEMIA</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>LARGE.CELL.LUNG.CARCINOMA</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>KICH</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>PRIMARY.MEDIASTINAL.B.CELL.LYMPHOMA</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>NEUROECTODERMAL.TUMOR</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>LGG</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>ATYPICAL.TERATOID...RHABDOID.TUMOR</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>HYPOPHARYNGEAL.CANCER</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>KIRC.KICH.KIRP</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>LAML.LCML</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>CESC</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>MANTLE.CELL.LYMPHOMA</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>KIRC</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>HODGKIN.LYMPHOMA</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>ACUTE.LYMPHOBLASTIC.LEUKEMIA</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>DLBC</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>MESO</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>PRAD</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>NASOPHARYNGEAL.CARCINOMA</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>OV</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>NON.CANCER</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>LIHC</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>UCEC</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>PAAD</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>GBM</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>LUAD</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>SEROUS.CARCINOMA</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>SKCM</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>THCA</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>LCML</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>ACUTE..MEGAKARYOCYTIC.LEUKEMIA</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>DROPPED</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>SQUAMOUS.CELL.VULVAR.CARCINOMA</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>BRCA</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>MULTIPLE.MYELOMA</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>LUNG.CANCER</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>NEUROBLASTOMA</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>GLIOMA</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>BLCA</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>COAD</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>MUCOSA.ASSOCIATED.LYMPHOID.TISSUE.LYMPHOMA</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>HNSC</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>STAD</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>EPENDYMOMA</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>LAML</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>FOLLICULAR.LYMPHOMA</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>SARC</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>ACC</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>SPLENIC.MARGINAL.CELL.LYMPHOMA</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>READ</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>LUAD.LUSC</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>EMBRYNOIC.CARCINOMA</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>LYMPHOMA</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>T.CELL.LYMPHOMA</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>LARGE.GRANULAR.LYMPHOCYTE.LEUKEMIA</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>ESCA</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>UTERINE.LEIOMYOMATA</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>MENINGIOMA</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>MUCOEPIDERMOID.PULMONARY.CARCINOMA</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>TETRATOCARCINOMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$C$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9954</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9954</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.9922</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.9916</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9914</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.9904</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.989</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.9884</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.9868</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.9858</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.9852</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.985</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.9834</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.9826</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.9826</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.9818</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.981</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.979</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.9766</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.975</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9714</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.9714</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.9702</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9666</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.966</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.965</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.965</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.9638</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.9596</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.958</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.9558</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.952</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.9478</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.9394</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.9358</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.9346</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.9334</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.9272</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.923</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.8774</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.8722</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.8536</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.8226</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.8176</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.768</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1734179984"/>
+        <c:axId val="-1730143648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1734179984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1730143648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1730143648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1734179984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1790700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>194733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>296333</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>182033</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -581,10 +1867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -596,7 +1882,7 @@
     <col min="8" max="8" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>77</v>
       </c>
@@ -608,7 +1894,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -630,8 +1916,11 @@
       <c r="H2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -656,8 +1945,12 @@
       <c r="H3">
         <v>4313</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="2">
+        <f>H3*(1-C3)</f>
+        <v>61.244599999999956</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -682,8 +1975,12 @@
       <c r="H4">
         <v>896</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I67" si="0">H4*(1-C4)</f>
+        <v>26.700800000000044</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -708,8 +2005,12 @@
       <c r="H5">
         <v>404</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>16.321599999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -734,8 +2035,12 @@
       <c r="H6">
         <v>257</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8270000000000026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -760,8 +2065,12 @@
       <c r="H7">
         <v>256</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>13.363200000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -786,8 +2095,12 @@
       <c r="H8">
         <v>240</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1679999999999975</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -812,8 +2125,12 @@
       <c r="H9">
         <v>226</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9323999999999932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -838,8 +2155,12 @@
       <c r="H10">
         <v>216</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1968000000000076</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -864,8 +2185,12 @@
       <c r="H11">
         <v>214</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>13.738800000000008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -890,8 +2215,12 @@
       <c r="H12">
         <v>212</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>16.323999999999991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -916,8 +2245,12 @@
       <c r="H13">
         <v>176</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.80960000000000854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -942,8 +2275,12 @@
       <c r="H14">
         <v>171</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8385999999999911</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -968,8 +2305,12 @@
       <c r="H15">
         <v>168</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1920000000000028</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -994,8 +2335,12 @@
       <c r="H16">
         <v>142</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2212000000000074</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1020,8 +2365,12 @@
       <c r="H17">
         <v>141</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>4.9350000000000041</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1046,8 +2395,12 @@
       <c r="H18">
         <v>137</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3837999999999959</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1072,8 +2425,12 @@
       <c r="H19">
         <v>132</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4087999999999976</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1098,8 +2455,12 @@
       <c r="H20">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.60840000000000227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1124,8 +2485,12 @@
       <c r="H21">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2160000000000029</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1150,8 +2515,12 @@
       <c r="H22">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8288000000000011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1176,8 +2545,12 @@
       <c r="H23">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.57600000000000318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1202,8 +2575,12 @@
       <c r="H24">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4039999999999986</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1228,8 +2605,12 @@
       <c r="H25">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="2">
+        <f t="shared" si="0"/>
+        <v>9.6672000000000011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1254,8 +2635,12 @@
       <c r="H26">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1280,8 +2665,12 @@
       <c r="H27">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6800000000000015</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1306,8 +2695,12 @@
       <c r="H28">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" s="2">
+        <f t="shared" si="0"/>
+        <v>0.61500000000000055</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1332,8 +2725,12 @@
       <c r="H29">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" s="2">
+        <f t="shared" si="0"/>
+        <v>0.42920000000000202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1358,8 +2755,12 @@
       <c r="H30">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17020000000000179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1384,8 +2785,12 @@
       <c r="H31">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1410,8 +2815,12 @@
       <c r="H32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1436,8 +2845,12 @@
       <c r="H33">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8179999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1462,8 +2875,12 @@
       <c r="H34">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98600000000000088</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1488,8 +2905,12 @@
       <c r="H35">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1514,8 +2935,12 @@
       <c r="H36">
         <v>28</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1540,8 +2965,12 @@
       <c r="H37">
         <v>28</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58800000000000052</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1566,8 +2995,12 @@
       <c r="H38">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" s="2">
+        <f t="shared" si="0"/>
+        <v>0.24000000000000021</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1592,8 +3025,12 @@
       <c r="H39">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1618,8 +3055,12 @@
       <c r="H40">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5042000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1644,8 +3085,12 @@
       <c r="H41">
         <v>22</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" s="2">
+        <f t="shared" si="0"/>
+        <v>5.1039999999999992</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1670,8 +3115,12 @@
       <c r="H42">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18479999999999919</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1696,8 +3145,12 @@
       <c r="H43">
         <v>22</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" s="2">
+        <f t="shared" si="0"/>
+        <v>0.79640000000000022</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1722,8 +3175,12 @@
       <c r="H44">
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1748,8 +3205,12 @@
       <c r="H45">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1774,8 +3235,12 @@
       <c r="H46">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1800,8 +3265,12 @@
       <c r="H47">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" s="2">
+        <f t="shared" si="0"/>
+        <v>0.63000000000000056</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1826,8 +3295,12 @@
       <c r="H48">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9170000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1852,8 +3325,12 @@
       <c r="H49">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1878,8 +3355,12 @@
       <c r="H50">
         <v>12</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4712000000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1904,8 +3385,12 @@
       <c r="H51">
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1930,8 +3415,12 @@
       <c r="H52">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1956,8 +3445,12 @@
       <c r="H53">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1982,8 +3475,12 @@
       <c r="H54">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18199999999999994</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -2008,8 +3505,12 @@
       <c r="H55">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" s="2">
+        <f t="shared" si="0"/>
+        <v>0.65519999999999978</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -2034,8 +3535,12 @@
       <c r="H56">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -2060,8 +3565,12 @@
       <c r="H57">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -2086,8 +3595,12 @@
       <c r="H58">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -2112,8 +3625,12 @@
       <c r="H59">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1711999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -2138,8 +3655,12 @@
       <c r="H60">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60" s="2">
+        <f t="shared" si="0"/>
+        <v>0.46619999999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -2164,8 +3685,12 @@
       <c r="H61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20019999999999971</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -2190,8 +3715,12 @@
       <c r="H62">
         <v>7</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -2216,8 +3745,12 @@
       <c r="H63">
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2418</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -2242,8 +3775,12 @@
       <c r="H64">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17159999999999975</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -2268,8 +3805,12 @@
       <c r="H65">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -2294,8 +3835,12 @@
       <c r="H66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -2320,8 +3865,12 @@
       <c r="H67">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3600000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -2346,8 +3895,12 @@
       <c r="H68">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68" s="2">
+        <f t="shared" ref="I68:I75" si="1">H68*(1-C68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -2372,8 +3925,12 @@
       <c r="H69">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -2398,8 +3955,12 @@
       <c r="H70">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15000000000000013</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -2424,8 +3985,12 @@
       <c r="H71">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -2450,8 +4015,12 @@
       <c r="H72">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -2476,8 +4045,12 @@
       <c r="H73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -2502,8 +4075,12 @@
       <c r="H74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74" s="2">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -2527,6 +4104,10 @@
       </c>
       <c r="H75">
         <v>1</v>
+      </c>
+      <c r="I75" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -2560,4 +4141,1614 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C2" activeCellId="1" sqref="A1:A1048576 B1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <f>LOG(E3,2)</f>
+        <v>5.6438561897747244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F67" si="0">LOG(E4,2)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>4.9541963103868758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>4.8073549220576037</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>4.8073549220576037</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>4.584962500721157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>4.3219280948873626</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>4.08746284125034</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>3.8073549220576037</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>3.5849625007211565</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>3.4594316186372978</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>3.4594316186372978</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>2.8073549220576042</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1.5849625007211563</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1.5849625007211563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>1.5849625007211563</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="C26">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>176</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>7.4594316186372973</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="C27">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>37</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>5.2094533656289501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="C28">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>78</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>6.2854022188622487</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="C29">
+        <v>0.99160000000000004</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>22</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>4.4594316186372973</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="C30">
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>142</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>7.1497471195046822</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="C31">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>60</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>5.9068905956085187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32">
+        <v>0.95</v>
+      </c>
+      <c r="C32">
+        <v>0.99</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>24</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>4.584962500721157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="C33">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="D33">
+        <v>0.996</v>
+      </c>
+      <c r="E33">
+        <v>257</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>8.0056245491938789</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="C34">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>37</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>5.2094533656289501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="C35">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="D35">
+        <v>0.996</v>
+      </c>
+      <c r="E35">
+        <v>240</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>7.9068905956085187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="C36">
+        <v>0.98580000000000001</v>
+      </c>
+      <c r="D36">
+        <v>0.995</v>
+      </c>
+      <c r="E36">
+        <v>4313</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>12.074476000734499</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="C37">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>216</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>7.7548875021634691</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="C38">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>41</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>5.3575520046180838</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="C39">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="D39">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="E39">
+        <v>171</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>7.4178525148858991</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="C40">
+        <v>0.98260000000000003</v>
+      </c>
+      <c r="D40">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="E40">
+        <v>226</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>7.8201789624151887</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="C41">
+        <v>0.98260000000000003</v>
+      </c>
+      <c r="D41">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="E41">
+        <v>137</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>7.0980320829605272</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="C42">
+        <v>0.98180000000000001</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>3.3219280948873626</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="C43">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="D43">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="E43">
+        <v>168</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>7.3923174227787607</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="C44">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>28</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>4.8073549220576037</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="C45">
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>60</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>5.9068905956085187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46">
+        <v>0.875</v>
+      </c>
+      <c r="C46">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="C47">
+        <v>0.97140000000000004</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>7</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>2.8073549220576042</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="C48">
+        <v>0.97140000000000004</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>6</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>2.5849625007211561</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="C49">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="D49">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="E49">
+        <v>896</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>9.8073549220576037</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="C50">
+        <v>0.96660000000000001</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>132</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>7.0443941193584534</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="C51">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>29</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>4.8579809951275728</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="C52">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="D52">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="E52">
+        <v>141</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>7.1395513523987937</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="C53">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>48</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>5.584962500721157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="C54">
+        <v>0.96379999999999999</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>22</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>4.4594316186372973</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="C55">
+        <v>0.95960000000000001</v>
+      </c>
+      <c r="D55">
+        <v>0.98</v>
+      </c>
+      <c r="E55">
+        <v>404</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>8.6582114827517955</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="C56">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>15</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>3.9068905956085187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="C57">
+        <v>0.95579999999999998</v>
+      </c>
+      <c r="D57">
+        <v>0.97</v>
+      </c>
+      <c r="E57">
+        <v>64</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58">
+        <v>0.91</v>
+      </c>
+      <c r="C58">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D58">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="E58">
+        <v>67</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>6.0660891904577721</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59">
+        <v>0.75</v>
+      </c>
+      <c r="C59">
+        <v>0.95</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>1.5849625007211563</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60">
+        <v>0.92</v>
+      </c>
+      <c r="C60">
+        <v>0.94779999999999998</v>
+      </c>
+      <c r="D60">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="E60">
+        <v>256</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="C61">
+        <v>0.93940000000000001</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>30</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>4.9068905956085187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="C62">
+        <v>0.93579999999999997</v>
+      </c>
+      <c r="D62">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="E62">
+        <v>214</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>7.7414669864011465</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63">
+        <v>0.84</v>
+      </c>
+      <c r="C63">
+        <v>0.93459999999999999</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>23</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>4.5235619560570131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="C64">
+        <v>0.93340000000000001</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>7</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>2.8073549220576042</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="C65">
+        <v>0.92720000000000002</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>9</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>3.1699250014423126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66">
+        <v>0.91</v>
+      </c>
+      <c r="C66">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="D66">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="E66">
+        <v>212</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>7.7279204545631996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="C67">
+        <v>0.87739999999999996</v>
+      </c>
+      <c r="D67">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="E67">
+        <v>12</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="0"/>
+        <v>3.5849625007211565</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="C68">
+        <v>0.87219999999999998</v>
+      </c>
+      <c r="D68">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="E68">
+        <v>15</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ref="F68:F75" si="1">LOG(E68,2)</f>
+        <v>3.9068905956085187</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="C69">
+        <v>0.85360000000000003</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>8</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>64</v>
+      </c>
+      <c r="B70">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="C70">
+        <v>0.8226</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>7</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>2.8073549220576042</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="C71">
+        <v>0.81759999999999999</v>
+      </c>
+      <c r="D71">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="E71">
+        <v>53</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>5.7279204545631996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>42</v>
+      </c>
+      <c r="B72">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="C72">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="D72">
+        <v>0.87</v>
+      </c>
+      <c r="E72">
+        <v>22</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>4.4594316186372973</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0.7</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>68</v>
+      </c>
+      <c r="B74">
+        <v>0.2</v>
+      </c>
+      <c r="C74">
+        <v>0.41</v>
+      </c>
+      <c r="D74">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0.2</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E75">
+    <sortCondition descending="1" ref="C2:C75"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:D33">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:D75">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>